--- a/BackTest/2020-01-25 BackTest LINK.xlsx
+++ b/BackTest/2020-01-25 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6061,7 +6061,7 @@
         <v>18301.63457691677</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>15533.37310866267</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -8074,10 +8074,14 @@
         <v>-1607.198640403903</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>2752</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2752</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8107,11 +8111,19 @@
         <v>-900.6176404039035</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>2752</v>
+      </c>
+      <c r="J234" t="n">
+        <v>2752</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8152,19 @@
         <v>-900.4176404039034</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>2770</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2752</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,10 +8193,14 @@
         <v>-1175.417640403904</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2786</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2786</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
@@ -8206,11 +8230,19 @@
         <v>-802.9754404039036</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2775</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8271,19 @@
         <v>-802.9754404039036</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>2777</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8312,19 @@
         <v>-802.9754404039036</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>2777</v>
+      </c>
+      <c r="J239" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8353,19 @@
         <v>-689.3469404039035</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>2777</v>
+      </c>
+      <c r="J240" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8397,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8433,19 @@
         <v>-468.3297404039035</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2775</v>
+      </c>
+      <c r="J242" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8474,19 @@
         <v>-468.3297404039035</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2776</v>
+      </c>
+      <c r="J243" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8515,19 @@
         <v>0.4587595960964563</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>2776</v>
+      </c>
+      <c r="J244" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8559,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8598,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8637,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8676,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8715,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8754,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8793,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8832,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8871,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +8910,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +8949,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +8988,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9027,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9066,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9105,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9144,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9183,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9222,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9261,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9300,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9339,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9378,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9417,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9456,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9495,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9534,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +9573,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9612,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9648,19 @@
         <v>8411.290140137715</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>2760</v>
+      </c>
+      <c r="J273" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9689,19 @@
         <v>8411.290140137715</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>2763</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9730,19 @@
         <v>8369.268440137716</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2763</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9771,19 @@
         <v>8369.268440137716</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>2760</v>
+      </c>
+      <c r="J276" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9812,19 @@
         <v>9386.268440137716</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>2760</v>
+      </c>
+      <c r="J277" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,15 +9853,19 @@
         <v>9386.268440137716</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>2763</v>
       </c>
       <c r="J278" t="n">
-        <v>2763</v>
-      </c>
-      <c r="K278" t="inlineStr"/>
+        <v>2786</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,15 +9894,17 @@
         <v>8403.943340137715</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2763</v>
+      </c>
       <c r="J279" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -9635,11 +9935,13 @@
         <v>8126.265078081235</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2760</v>
+      </c>
       <c r="J280" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9674,11 +9976,13 @@
         <v>7772.957878081234</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2758</v>
+      </c>
       <c r="J281" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9713,11 +10017,13 @@
         <v>7772.957878081234</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>2756</v>
+      </c>
       <c r="J282" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9752,13 +10058,13 @@
         <v>7753.274878081234</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>2756</v>
       </c>
       <c r="J283" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9793,13 +10099,13 @@
         <v>7711.962678081234</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>2755</v>
       </c>
       <c r="J284" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -9834,13 +10140,13 @@
         <v>7921.737878081234</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>2754</v>
       </c>
       <c r="J285" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -9875,13 +10181,13 @@
         <v>7697.716678081234</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>2756</v>
       </c>
       <c r="J286" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -9916,13 +10222,13 @@
         <v>7698.715331284274</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>2754</v>
       </c>
       <c r="J287" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -9957,13 +10263,13 @@
         <v>7699.715331284274</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>2763</v>
       </c>
       <c r="J288" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -9998,13 +10304,13 @@
         <v>7699.715331284274</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>2766</v>
       </c>
       <c r="J289" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10039,13 +10345,13 @@
         <v>8924.652431284274</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>2766</v>
       </c>
       <c r="J290" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10080,13 +10386,13 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>2771</v>
       </c>
       <c r="J291" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10121,13 +10427,13 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>2772</v>
       </c>
       <c r="J292" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10162,13 +10468,13 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>2772</v>
       </c>
       <c r="J293" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10203,13 +10509,13 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>2772</v>
       </c>
       <c r="J294" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10244,13 +10550,13 @@
         <v>9326.679131284272</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>2772</v>
       </c>
       <c r="J295" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10285,13 +10591,13 @@
         <v>9326.679131284272</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>2771</v>
       </c>
       <c r="J296" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10326,13 +10632,13 @@
         <v>9434.515220428773</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>2771</v>
       </c>
       <c r="J297" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10367,13 +10673,13 @@
         <v>9434.515220428773</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>2782</v>
       </c>
       <c r="J298" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10408,11 +10714,13 @@
         <v>9434.515220428773</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>2782</v>
+      </c>
       <c r="J299" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10451,7 +10759,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10490,7 +10798,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10529,7 +10837,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10568,7 +10876,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10607,7 +10915,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10646,7 +10954,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10685,7 +10993,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10724,7 +11032,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10763,7 +11071,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10802,7 +11110,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10841,7 +11149,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10880,7 +11188,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10919,7 +11227,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10958,7 +11266,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10997,7 +11305,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11036,7 +11344,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11075,7 +11383,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11114,7 +11422,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11153,7 +11461,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11192,7 +11500,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11231,7 +11539,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11270,7 +11578,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11309,7 +11617,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11348,7 +11656,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11387,7 +11695,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11426,7 +11734,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11465,7 +11773,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11504,7 +11812,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11543,7 +11851,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11582,7 +11890,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11621,7 +11929,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11660,7 +11968,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11699,7 +12007,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11738,7 +12046,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11777,7 +12085,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11816,7 +12124,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11855,7 +12163,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11894,7 +12202,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11933,7 +12241,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11972,7 +12280,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12011,7 +12319,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12050,7 +12358,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12089,7 +12397,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12128,7 +12436,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12167,7 +12475,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12206,7 +12514,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12245,7 +12553,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12284,7 +12592,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12323,7 +12631,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12362,7 +12670,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12401,7 +12709,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12440,7 +12748,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12479,7 +12787,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12518,7 +12826,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12557,7 +12865,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12596,7 +12904,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12635,7 +12943,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12674,7 +12982,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12713,7 +13021,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12752,7 +13060,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12791,7 +13099,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12830,7 +13138,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12869,7 +13177,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12908,7 +13216,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12947,7 +13255,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12986,7 +13294,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13025,7 +13333,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13064,7 +13372,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13103,7 +13411,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13142,7 +13450,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13181,7 +13489,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13220,7 +13528,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13259,7 +13567,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13298,7 +13606,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13337,7 +13645,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13376,7 +13684,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13415,7 +13723,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13454,7 +13762,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13493,7 +13801,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13532,7 +13840,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13571,7 +13879,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13610,7 +13918,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13649,7 +13957,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13688,7 +13996,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13727,7 +14035,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13766,7 +14074,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13805,7 +14113,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13844,7 +14152,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13883,7 +14191,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13922,7 +14230,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13961,7 +14269,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14000,7 +14308,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14035,19 +14343,19 @@
         <v>19988.29569960989</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>2763</v>
+        <v>2786</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L392" t="n">
-        <v>1.040964531306551</v>
+        <v>1</v>
       </c>
       <c r="M392" t="inlineStr"/>
     </row>
@@ -14077,8 +14385,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14107,11 +14421,17 @@
         <v>20091.17649960989</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14140,11 +14460,17 @@
         <v>20091.17649960989</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14173,11 +14499,17 @@
         <v>20505.30499960989</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14206,11 +14538,17 @@
         <v>20506.75499960989</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14239,11 +14577,17 @@
         <v>20996.23089960989</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14272,11 +14616,17 @@
         <v>21768.19449960989</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14305,11 +14655,17 @@
         <v>20924.95969960989</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14341,8 +14697,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14371,11 +14733,17 @@
         <v>20586.15009960989</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14404,11 +14772,17 @@
         <v>20586.15009960989</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14437,11 +14811,17 @@
         <v>21391.00319960989</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14470,11 +14850,17 @@
         <v>21181.81699960989</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14503,11 +14889,17 @@
         <v>21181.81699960989</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14536,11 +14928,17 @@
         <v>21181.81699960989</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14569,11 +14967,17 @@
         <v>21181.81699960989</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14602,11 +15006,17 @@
         <v>21181.81699960989</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14635,11 +15045,17 @@
         <v>20782.21849960989</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14668,11 +15084,17 @@
         <v>20255.37629960989</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14701,11 +15123,17 @@
         <v>18683.14619960989</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14734,13 +15162,19 @@
         <v>20512.17989960989</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2786</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L413" t="n">
-        <v>1</v>
+        <v>1.039149318018665</v>
       </c>
       <c r="M413" t="inlineStr"/>
     </row>
@@ -14767,7 +15201,7 @@
         <v>20325.94349960989</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14800,7 +15234,7 @@
         <v>20325.94349960989</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14833,7 +15267,7 @@
         <v>20325.94349960989</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14866,7 +15300,7 @@
         <v>22159.78109960989</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14899,7 +15333,7 @@
         <v>22866.73149960989</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14932,7 +15366,7 @@
         <v>22866.73149960989</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14965,7 +15399,7 @@
         <v>22866.73149960989</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14998,7 +15432,7 @@
         <v>22893.83449960989</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15031,7 +15465,7 @@
         <v>26130.03499960988</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15064,7 +15498,7 @@
         <v>25478.24091724896</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15097,7 +15531,7 @@
         <v>26901.57175703829</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15130,7 +15564,7 @@
         <v>25883.87175703829</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15229,7 +15663,7 @@
         <v>23856.25075703829</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15328,7 +15762,7 @@
         <v>20004.83695703829</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15361,7 +15795,7 @@
         <v>21843.85175703829</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15394,7 +15828,7 @@
         <v>22144.85175703829</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15427,7 +15861,7 @@
         <v>21938.52915703829</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15460,7 +15894,7 @@
         <v>21954.01905703829</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15625,7 +16059,7 @@
         <v>21959.93995703829</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15658,7 +16092,7 @@
         <v>21960.93995703829</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15691,7 +16125,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15724,7 +16158,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15757,7 +16191,7 @@
         <v>22344.26975703829</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15790,7 +16224,7 @@
         <v>22584.86685703829</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15823,7 +16257,7 @@
         <v>22351.58805703829</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15856,7 +16290,7 @@
         <v>22355.70285703829</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15889,7 +16323,7 @@
         <v>22352.18465703829</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15922,7 +16356,7 @@
         <v>22353.18465703829</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15955,7 +16389,7 @@
         <v>22353.18465703829</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15988,7 +16422,7 @@
         <v>22338.27635703829</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16153,7 +16587,7 @@
         <v>21882.77275703829</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16351,7 +16785,7 @@
         <v>21128.38255703829</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16483,7 +16917,7 @@
         <v>21842.09785703829</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16516,7 +16950,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16549,7 +16983,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16582,7 +17016,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16615,7 +17049,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16648,7 +17082,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16681,7 +17115,7 @@
         <v>21939.44305703829</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16714,7 +17148,7 @@
         <v>22108.69285703829</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16747,7 +17181,7 @@
         <v>21927.32185703829</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16780,7 +17214,7 @@
         <v>21826.51435703829</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16813,7 +17247,7 @@
         <v>21867.51435703829</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16824,6 +17258,6 @@
       <c r="M476" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest LINK.xlsx
+++ b/BackTest/2020-01-25 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -8193,14 +8193,10 @@
         <v>-1175.417640403904</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>2786</v>
-      </c>
-      <c r="J236" t="n">
-        <v>2786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
@@ -8230,1929 +8226,1613 @@
         <v>-802.9754404039036</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2777</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2777</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2777</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2777</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-802.9754404039036</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2777</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2777</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2777</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2777</v>
+      </c>
+      <c r="F239" t="n">
+        <v>5.2951</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-802.9754404039036</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2785</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2786</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2786</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2785</v>
+      </c>
+      <c r="F240" t="n">
+        <v>113.6285</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-689.3469404039035</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
         <v>2775</v>
       </c>
-      <c r="J237" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K237" t="inlineStr">
+      <c r="C241" t="n">
+        <v>2775</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2775</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2775</v>
+      </c>
+      <c r="F241" t="n">
+        <v>6.1192</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-695.4661404039035</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2777</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2776</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2777</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2776</v>
+      </c>
+      <c r="F242" t="n">
+        <v>227.1364</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-468.3297404039035</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2777</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2776</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2777</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2776</v>
+      </c>
+      <c r="F243" t="n">
+        <v>913.7374</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-468.3297404039035</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2781</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2781</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2781</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2781</v>
+      </c>
+      <c r="F244" t="n">
+        <v>468.7885</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.4587595960964563</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2781</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2781</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2781</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2781</v>
+      </c>
+      <c r="F245" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.4587595960964563</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2781</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2781</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2781</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2781</v>
+      </c>
+      <c r="F246" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.4587595960964563</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2782</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2782</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2782</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2782</v>
+      </c>
+      <c r="F247" t="n">
+        <v>50</v>
+      </c>
+      <c r="G247" t="n">
+        <v>50.45875959609646</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2782</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2782</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2782</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2782</v>
+      </c>
+      <c r="F248" t="n">
+        <v>381.4464414090583</v>
+      </c>
+      <c r="G248" t="n">
+        <v>50.45875959609646</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2775</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2775</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2775</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2775</v>
+      </c>
+      <c r="F249" t="n">
+        <v>17.7431</v>
+      </c>
+      <c r="G249" t="n">
+        <v>32.71565959609646</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2779</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2779</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2779</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2779</v>
+      </c>
+      <c r="F250" t="n">
+        <v>192.385</v>
+      </c>
+      <c r="G250" t="n">
+        <v>225.1006595960964</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2782</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2782</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2782</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2782</v>
+      </c>
+      <c r="F251" t="n">
+        <v>7.3585</v>
+      </c>
+      <c r="G251" t="n">
+        <v>232.4591595960964</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2784</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2828</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2828</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2784</v>
+      </c>
+      <c r="F252" t="n">
+        <v>11397.61873536068</v>
+      </c>
+      <c r="G252" t="n">
+        <v>11630.07789495678</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2784</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2784</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2784</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2784</v>
+      </c>
+      <c r="F253" t="n">
+        <v>80.617</v>
+      </c>
+      <c r="G253" t="n">
+        <v>11549.46089495678</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2791</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2791</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2791</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2791</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3.582945180938732</v>
+      </c>
+      <c r="G254" t="n">
+        <v>11553.04384013771</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2791</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2783</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2791</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2783</v>
+      </c>
+      <c r="F255" t="n">
+        <v>65.6026</v>
+      </c>
+      <c r="G255" t="n">
+        <v>11487.44124013771</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2784</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2784</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2784</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2784</v>
+      </c>
+      <c r="F256" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="G256" t="n">
+        <v>11515.53124013771</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2789</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2789</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2789</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F257" t="n">
+        <v>25.0996</v>
+      </c>
+      <c r="G257" t="n">
+        <v>11540.63084013771</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2783</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2783</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2783</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2783</v>
+      </c>
+      <c r="F258" t="n">
+        <v>223.5164</v>
+      </c>
+      <c r="G258" t="n">
+        <v>11317.11444013771</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2783</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2781</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2783</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2781</v>
+      </c>
+      <c r="F259" t="n">
+        <v>76.55840000000001</v>
+      </c>
+      <c r="G259" t="n">
+        <v>11240.55604013771</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2780</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2780</v>
+      </c>
+      <c r="F260" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G260" t="n">
+        <v>11235.15604013771</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2780</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2780</v>
+      </c>
+      <c r="F261" t="n">
+        <v>233.1608</v>
+      </c>
+      <c r="G261" t="n">
+        <v>11235.15604013771</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2784</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2784</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2780</v>
+      </c>
+      <c r="F262" t="n">
+        <v>373.7899</v>
+      </c>
+      <c r="G262" t="n">
+        <v>11608.94594013771</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2779</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2769</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2779</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2769</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1774.2506</v>
+      </c>
+      <c r="G263" t="n">
+        <v>9834.695340137714</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2770</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2770</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2770</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2770</v>
+      </c>
+      <c r="F264" t="n">
+        <v>20</v>
+      </c>
+      <c r="G264" t="n">
+        <v>9854.695340137714</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2770</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2770</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2770</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2770</v>
+      </c>
+      <c r="F265" t="n">
+        <v>26</v>
+      </c>
+      <c r="G265" t="n">
+        <v>9854.695340137714</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2770</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2770</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2770</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2770</v>
+      </c>
+      <c r="F266" t="n">
+        <v>154</v>
+      </c>
+      <c r="G266" t="n">
+        <v>9854.695340137714</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2769</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2769</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2769</v>
+      </c>
+      <c r="F267" t="n">
+        <v>249.3967</v>
+      </c>
+      <c r="G267" t="n">
+        <v>9605.298640137715</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2763</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2763</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2763</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1167.0085</v>
+      </c>
+      <c r="G268" t="n">
+        <v>8438.290140137715</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2763</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2763</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2763</v>
+      </c>
+      <c r="F269" t="n">
+        <v>208.3841</v>
+      </c>
+      <c r="G269" t="n">
+        <v>8438.290140137715</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2763</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2763</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2763</v>
+      </c>
+      <c r="F270" t="n">
+        <v>91.6895</v>
+      </c>
+      <c r="G270" t="n">
+        <v>8438.290140137715</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2760</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2760</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2760</v>
+      </c>
+      <c r="F271" t="n">
+        <v>30</v>
+      </c>
+      <c r="G271" t="n">
+        <v>8408.290140137715</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2760</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2760</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2760</v>
+      </c>
+      <c r="F272" t="n">
+        <v>10</v>
+      </c>
+      <c r="G272" t="n">
+        <v>8408.290140137715</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2763</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2763</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2763</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3</v>
+      </c>
+      <c r="G273" t="n">
+        <v>8411.290140137715</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2763</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2763</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2763</v>
+      </c>
+      <c r="F274" t="n">
+        <v>173.7479</v>
+      </c>
+      <c r="G274" t="n">
+        <v>8411.290140137715</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2760</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2760</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2760</v>
+      </c>
+      <c r="F275" t="n">
+        <v>42.0217</v>
+      </c>
+      <c r="G275" t="n">
+        <v>8369.268440137716</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2760</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2760</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2760</v>
+      </c>
+      <c r="F276" t="n">
+        <v>48.5276</v>
+      </c>
+      <c r="G276" t="n">
+        <v>8369.268440137716</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2763</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2763</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2763</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G277" t="n">
+        <v>9386.268440137716</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2763</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2763</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2763</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2763</v>
+      </c>
+      <c r="F278" t="n">
+        <v>166.0709</v>
+      </c>
+      <c r="G278" t="n">
+        <v>9386.268440137716</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2765</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2765</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2760</v>
+      </c>
+      <c r="F279" t="n">
+        <v>982.3251</v>
+      </c>
+      <c r="G279" t="n">
+        <v>8403.943340137715</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2759</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2758</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2762</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2758</v>
+      </c>
+      <c r="F280" t="n">
+        <v>277.6782620564808</v>
+      </c>
+      <c r="G280" t="n">
+        <v>8126.265078081235</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2758</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2756</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2760</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2756</v>
+      </c>
+      <c r="F281" t="n">
+        <v>353.3072</v>
+      </c>
+      <c r="G281" t="n">
+        <v>7772.957878081234</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2756</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2756</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2756</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2756</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1.9403</v>
+      </c>
+      <c r="G282" t="n">
+        <v>7772.957878081234</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2755</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2755</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2755</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2755</v>
+      </c>
+      <c r="F283" t="n">
+        <v>19.683</v>
+      </c>
+      <c r="G283" t="n">
+        <v>7753.274878081234</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>2756</v>
+      </c>
+      <c r="J283" t="n">
+        <v>2756</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2754</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2754</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2754</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2754</v>
+      </c>
+      <c r="F284" t="n">
+        <v>41.3122</v>
+      </c>
+      <c r="G284" t="n">
+        <v>7711.962678081234</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2756</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2754</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2756</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2756</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2754</v>
+      </c>
+      <c r="F285" t="n">
+        <v>209.7752</v>
+      </c>
+      <c r="G285" t="n">
+        <v>7921.737878081234</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>2754</v>
+      </c>
+      <c r="J285" t="n">
+        <v>2756</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>2777</v>
-      </c>
-      <c r="C238" t="n">
-        <v>2777</v>
-      </c>
-      <c r="D238" t="n">
-        <v>2777</v>
-      </c>
-      <c r="E238" t="n">
-        <v>2777</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-802.9754404039036</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>2777</v>
-      </c>
-      <c r="J238" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>2777</v>
-      </c>
-      <c r="C239" t="n">
-        <v>2777</v>
-      </c>
-      <c r="D239" t="n">
-        <v>2777</v>
-      </c>
-      <c r="E239" t="n">
-        <v>2777</v>
-      </c>
-      <c r="F239" t="n">
-        <v>5.2951</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-802.9754404039036</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>2777</v>
-      </c>
-      <c r="J239" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>2785</v>
-      </c>
-      <c r="C240" t="n">
-        <v>2786</v>
-      </c>
-      <c r="D240" t="n">
-        <v>2786</v>
-      </c>
-      <c r="E240" t="n">
-        <v>2785</v>
-      </c>
-      <c r="F240" t="n">
-        <v>113.6285</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-689.3469404039035</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>2777</v>
-      </c>
-      <c r="J240" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>2775</v>
-      </c>
-      <c r="C241" t="n">
-        <v>2775</v>
-      </c>
-      <c r="D241" t="n">
-        <v>2775</v>
-      </c>
-      <c r="E241" t="n">
-        <v>2775</v>
-      </c>
-      <c r="F241" t="n">
-        <v>6.1192</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-695.4661404039035</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>2777</v>
-      </c>
-      <c r="C242" t="n">
-        <v>2776</v>
-      </c>
-      <c r="D242" t="n">
-        <v>2777</v>
-      </c>
-      <c r="E242" t="n">
-        <v>2776</v>
-      </c>
-      <c r="F242" t="n">
-        <v>227.1364</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-468.3297404039035</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>2775</v>
-      </c>
-      <c r="J242" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>2777</v>
-      </c>
-      <c r="C243" t="n">
-        <v>2776</v>
-      </c>
-      <c r="D243" t="n">
-        <v>2777</v>
-      </c>
-      <c r="E243" t="n">
-        <v>2776</v>
-      </c>
-      <c r="F243" t="n">
-        <v>913.7374</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-468.3297404039035</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>2776</v>
-      </c>
-      <c r="J243" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>2781</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2781</v>
-      </c>
-      <c r="D244" t="n">
-        <v>2781</v>
-      </c>
-      <c r="E244" t="n">
-        <v>2781</v>
-      </c>
-      <c r="F244" t="n">
-        <v>468.7885</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.4587595960964563</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>2776</v>
-      </c>
-      <c r="J244" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>2781</v>
-      </c>
-      <c r="C245" t="n">
-        <v>2781</v>
-      </c>
-      <c r="D245" t="n">
-        <v>2781</v>
-      </c>
-      <c r="E245" t="n">
-        <v>2781</v>
-      </c>
-      <c r="F245" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.4587595960964563</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>2781</v>
-      </c>
-      <c r="C246" t="n">
-        <v>2781</v>
-      </c>
-      <c r="D246" t="n">
-        <v>2781</v>
-      </c>
-      <c r="E246" t="n">
-        <v>2781</v>
-      </c>
-      <c r="F246" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.4587595960964563</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>2782</v>
-      </c>
-      <c r="C247" t="n">
-        <v>2782</v>
-      </c>
-      <c r="D247" t="n">
-        <v>2782</v>
-      </c>
-      <c r="E247" t="n">
-        <v>2782</v>
-      </c>
-      <c r="F247" t="n">
-        <v>50</v>
-      </c>
-      <c r="G247" t="n">
-        <v>50.45875959609646</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>2782</v>
-      </c>
-      <c r="C248" t="n">
-        <v>2782</v>
-      </c>
-      <c r="D248" t="n">
-        <v>2782</v>
-      </c>
-      <c r="E248" t="n">
-        <v>2782</v>
-      </c>
-      <c r="F248" t="n">
-        <v>381.4464414090583</v>
-      </c>
-      <c r="G248" t="n">
-        <v>50.45875959609646</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>2775</v>
-      </c>
-      <c r="C249" t="n">
-        <v>2775</v>
-      </c>
-      <c r="D249" t="n">
-        <v>2775</v>
-      </c>
-      <c r="E249" t="n">
-        <v>2775</v>
-      </c>
-      <c r="F249" t="n">
-        <v>17.7431</v>
-      </c>
-      <c r="G249" t="n">
-        <v>32.71565959609646</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>2779</v>
-      </c>
-      <c r="C250" t="n">
-        <v>2779</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2779</v>
-      </c>
-      <c r="E250" t="n">
-        <v>2779</v>
-      </c>
-      <c r="F250" t="n">
-        <v>192.385</v>
-      </c>
-      <c r="G250" t="n">
-        <v>225.1006595960964</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>2782</v>
-      </c>
-      <c r="C251" t="n">
-        <v>2782</v>
-      </c>
-      <c r="D251" t="n">
-        <v>2782</v>
-      </c>
-      <c r="E251" t="n">
-        <v>2782</v>
-      </c>
-      <c r="F251" t="n">
-        <v>7.3585</v>
-      </c>
-      <c r="G251" t="n">
-        <v>232.4591595960964</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>2784</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2828</v>
-      </c>
-      <c r="D252" t="n">
-        <v>2828</v>
-      </c>
-      <c r="E252" t="n">
-        <v>2784</v>
-      </c>
-      <c r="F252" t="n">
-        <v>11397.61873536068</v>
-      </c>
-      <c r="G252" t="n">
-        <v>11630.07789495678</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>2784</v>
-      </c>
-      <c r="C253" t="n">
-        <v>2784</v>
-      </c>
-      <c r="D253" t="n">
-        <v>2784</v>
-      </c>
-      <c r="E253" t="n">
-        <v>2784</v>
-      </c>
-      <c r="F253" t="n">
-        <v>80.617</v>
-      </c>
-      <c r="G253" t="n">
-        <v>11549.46089495678</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>2791</v>
-      </c>
-      <c r="C254" t="n">
-        <v>2791</v>
-      </c>
-      <c r="D254" t="n">
-        <v>2791</v>
-      </c>
-      <c r="E254" t="n">
-        <v>2791</v>
-      </c>
-      <c r="F254" t="n">
-        <v>3.582945180938732</v>
-      </c>
-      <c r="G254" t="n">
-        <v>11553.04384013771</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>2791</v>
-      </c>
-      <c r="C255" t="n">
-        <v>2783</v>
-      </c>
-      <c r="D255" t="n">
-        <v>2791</v>
-      </c>
-      <c r="E255" t="n">
-        <v>2783</v>
-      </c>
-      <c r="F255" t="n">
-        <v>65.6026</v>
-      </c>
-      <c r="G255" t="n">
-        <v>11487.44124013771</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>2784</v>
-      </c>
-      <c r="C256" t="n">
-        <v>2784</v>
-      </c>
-      <c r="D256" t="n">
-        <v>2784</v>
-      </c>
-      <c r="E256" t="n">
-        <v>2784</v>
-      </c>
-      <c r="F256" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="G256" t="n">
-        <v>11515.53124013771</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>2789</v>
-      </c>
-      <c r="C257" t="n">
-        <v>2789</v>
-      </c>
-      <c r="D257" t="n">
-        <v>2789</v>
-      </c>
-      <c r="E257" t="n">
-        <v>2789</v>
-      </c>
-      <c r="F257" t="n">
-        <v>25.0996</v>
-      </c>
-      <c r="G257" t="n">
-        <v>11540.63084013771</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>2783</v>
-      </c>
-      <c r="C258" t="n">
-        <v>2783</v>
-      </c>
-      <c r="D258" t="n">
-        <v>2783</v>
-      </c>
-      <c r="E258" t="n">
-        <v>2783</v>
-      </c>
-      <c r="F258" t="n">
-        <v>223.5164</v>
-      </c>
-      <c r="G258" t="n">
-        <v>11317.11444013771</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>2783</v>
-      </c>
-      <c r="C259" t="n">
-        <v>2781</v>
-      </c>
-      <c r="D259" t="n">
-        <v>2783</v>
-      </c>
-      <c r="E259" t="n">
-        <v>2781</v>
-      </c>
-      <c r="F259" t="n">
-        <v>76.55840000000001</v>
-      </c>
-      <c r="G259" t="n">
-        <v>11240.55604013771</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>2780</v>
-      </c>
-      <c r="C260" t="n">
-        <v>2780</v>
-      </c>
-      <c r="D260" t="n">
-        <v>2780</v>
-      </c>
-      <c r="E260" t="n">
-        <v>2780</v>
-      </c>
-      <c r="F260" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G260" t="n">
-        <v>11235.15604013771</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>2780</v>
-      </c>
-      <c r="C261" t="n">
-        <v>2780</v>
-      </c>
-      <c r="D261" t="n">
-        <v>2780</v>
-      </c>
-      <c r="E261" t="n">
-        <v>2780</v>
-      </c>
-      <c r="F261" t="n">
-        <v>233.1608</v>
-      </c>
-      <c r="G261" t="n">
-        <v>11235.15604013771</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>2780</v>
-      </c>
-      <c r="C262" t="n">
-        <v>2784</v>
-      </c>
-      <c r="D262" t="n">
-        <v>2784</v>
-      </c>
-      <c r="E262" t="n">
-        <v>2780</v>
-      </c>
-      <c r="F262" t="n">
-        <v>373.7899</v>
-      </c>
-      <c r="G262" t="n">
-        <v>11608.94594013771</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>2779</v>
-      </c>
-      <c r="C263" t="n">
-        <v>2769</v>
-      </c>
-      <c r="D263" t="n">
-        <v>2779</v>
-      </c>
-      <c r="E263" t="n">
-        <v>2769</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1774.2506</v>
-      </c>
-      <c r="G263" t="n">
-        <v>9834.695340137714</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>2770</v>
-      </c>
-      <c r="C264" t="n">
-        <v>2770</v>
-      </c>
-      <c r="D264" t="n">
-        <v>2770</v>
-      </c>
-      <c r="E264" t="n">
-        <v>2770</v>
-      </c>
-      <c r="F264" t="n">
-        <v>20</v>
-      </c>
-      <c r="G264" t="n">
-        <v>9854.695340137714</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>2770</v>
-      </c>
-      <c r="C265" t="n">
-        <v>2770</v>
-      </c>
-      <c r="D265" t="n">
-        <v>2770</v>
-      </c>
-      <c r="E265" t="n">
-        <v>2770</v>
-      </c>
-      <c r="F265" t="n">
-        <v>26</v>
-      </c>
-      <c r="G265" t="n">
-        <v>9854.695340137714</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>2770</v>
-      </c>
-      <c r="C266" t="n">
-        <v>2770</v>
-      </c>
-      <c r="D266" t="n">
-        <v>2770</v>
-      </c>
-      <c r="E266" t="n">
-        <v>2770</v>
-      </c>
-      <c r="F266" t="n">
-        <v>154</v>
-      </c>
-      <c r="G266" t="n">
-        <v>9854.695340137714</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>2769</v>
-      </c>
-      <c r="C267" t="n">
-        <v>2769</v>
-      </c>
-      <c r="D267" t="n">
-        <v>2769</v>
-      </c>
-      <c r="E267" t="n">
-        <v>2769</v>
-      </c>
-      <c r="F267" t="n">
-        <v>249.3967</v>
-      </c>
-      <c r="G267" t="n">
-        <v>9605.298640137715</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>2763</v>
-      </c>
-      <c r="C268" t="n">
-        <v>2763</v>
-      </c>
-      <c r="D268" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E268" t="n">
-        <v>2763</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1167.0085</v>
-      </c>
-      <c r="G268" t="n">
-        <v>8438.290140137715</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>2763</v>
-      </c>
-      <c r="C269" t="n">
-        <v>2763</v>
-      </c>
-      <c r="D269" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E269" t="n">
-        <v>2763</v>
-      </c>
-      <c r="F269" t="n">
-        <v>208.3841</v>
-      </c>
-      <c r="G269" t="n">
-        <v>8438.290140137715</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>2763</v>
-      </c>
-      <c r="C270" t="n">
-        <v>2763</v>
-      </c>
-      <c r="D270" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E270" t="n">
-        <v>2763</v>
-      </c>
-      <c r="F270" t="n">
-        <v>91.6895</v>
-      </c>
-      <c r="G270" t="n">
-        <v>8438.290140137715</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>2760</v>
-      </c>
-      <c r="C271" t="n">
-        <v>2760</v>
-      </c>
-      <c r="D271" t="n">
-        <v>2760</v>
-      </c>
-      <c r="E271" t="n">
-        <v>2760</v>
-      </c>
-      <c r="F271" t="n">
-        <v>30</v>
-      </c>
-      <c r="G271" t="n">
-        <v>8408.290140137715</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>2760</v>
-      </c>
-      <c r="C272" t="n">
-        <v>2760</v>
-      </c>
-      <c r="D272" t="n">
-        <v>2760</v>
-      </c>
-      <c r="E272" t="n">
-        <v>2760</v>
-      </c>
-      <c r="F272" t="n">
-        <v>10</v>
-      </c>
-      <c r="G272" t="n">
-        <v>8408.290140137715</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>2763</v>
-      </c>
-      <c r="C273" t="n">
-        <v>2763</v>
-      </c>
-      <c r="D273" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E273" t="n">
-        <v>2763</v>
-      </c>
-      <c r="F273" t="n">
-        <v>3</v>
-      </c>
-      <c r="G273" t="n">
-        <v>8411.290140137715</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2760</v>
-      </c>
-      <c r="J273" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>2763</v>
-      </c>
-      <c r="C274" t="n">
-        <v>2763</v>
-      </c>
-      <c r="D274" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E274" t="n">
-        <v>2763</v>
-      </c>
-      <c r="F274" t="n">
-        <v>173.7479</v>
-      </c>
-      <c r="G274" t="n">
-        <v>8411.290140137715</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2763</v>
-      </c>
-      <c r="J274" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>2760</v>
-      </c>
-      <c r="C275" t="n">
-        <v>2760</v>
-      </c>
-      <c r="D275" t="n">
-        <v>2760</v>
-      </c>
-      <c r="E275" t="n">
-        <v>2760</v>
-      </c>
-      <c r="F275" t="n">
-        <v>42.0217</v>
-      </c>
-      <c r="G275" t="n">
-        <v>8369.268440137716</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>2763</v>
-      </c>
-      <c r="J275" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>2760</v>
-      </c>
-      <c r="C276" t="n">
-        <v>2760</v>
-      </c>
-      <c r="D276" t="n">
-        <v>2760</v>
-      </c>
-      <c r="E276" t="n">
-        <v>2760</v>
-      </c>
-      <c r="F276" t="n">
-        <v>48.5276</v>
-      </c>
-      <c r="G276" t="n">
-        <v>8369.268440137716</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>2760</v>
-      </c>
-      <c r="J276" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>2763</v>
-      </c>
-      <c r="C277" t="n">
-        <v>2763</v>
-      </c>
-      <c r="D277" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E277" t="n">
-        <v>2763</v>
-      </c>
-      <c r="F277" t="n">
-        <v>1017</v>
-      </c>
-      <c r="G277" t="n">
-        <v>9386.268440137716</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>2760</v>
-      </c>
-      <c r="J277" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>2763</v>
-      </c>
-      <c r="C278" t="n">
-        <v>2763</v>
-      </c>
-      <c r="D278" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E278" t="n">
-        <v>2763</v>
-      </c>
-      <c r="F278" t="n">
-        <v>166.0709</v>
-      </c>
-      <c r="G278" t="n">
-        <v>9386.268440137716</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>2763</v>
-      </c>
-      <c r="J278" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>2765</v>
-      </c>
-      <c r="C279" t="n">
-        <v>2760</v>
-      </c>
-      <c r="D279" t="n">
-        <v>2765</v>
-      </c>
-      <c r="E279" t="n">
-        <v>2760</v>
-      </c>
-      <c r="F279" t="n">
-        <v>982.3251</v>
-      </c>
-      <c r="G279" t="n">
-        <v>8403.943340137715</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2763</v>
-      </c>
-      <c r="J279" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>2759</v>
-      </c>
-      <c r="C280" t="n">
-        <v>2758</v>
-      </c>
-      <c r="D280" t="n">
-        <v>2762</v>
-      </c>
-      <c r="E280" t="n">
-        <v>2758</v>
-      </c>
-      <c r="F280" t="n">
-        <v>277.6782620564808</v>
-      </c>
-      <c r="G280" t="n">
-        <v>8126.265078081235</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>2760</v>
-      </c>
-      <c r="J280" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>2758</v>
-      </c>
-      <c r="C281" t="n">
-        <v>2756</v>
-      </c>
-      <c r="D281" t="n">
-        <v>2760</v>
-      </c>
-      <c r="E281" t="n">
-        <v>2756</v>
-      </c>
-      <c r="F281" t="n">
-        <v>353.3072</v>
-      </c>
-      <c r="G281" t="n">
-        <v>7772.957878081234</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2758</v>
-      </c>
-      <c r="J281" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>2756</v>
-      </c>
-      <c r="C282" t="n">
-        <v>2756</v>
-      </c>
-      <c r="D282" t="n">
-        <v>2756</v>
-      </c>
-      <c r="E282" t="n">
-        <v>2756</v>
-      </c>
-      <c r="F282" t="n">
-        <v>1.9403</v>
-      </c>
-      <c r="G282" t="n">
-        <v>7772.957878081234</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>2756</v>
-      </c>
-      <c r="J282" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>2755</v>
-      </c>
-      <c r="C283" t="n">
-        <v>2755</v>
-      </c>
-      <c r="D283" t="n">
-        <v>2755</v>
-      </c>
-      <c r="E283" t="n">
-        <v>2755</v>
-      </c>
-      <c r="F283" t="n">
-        <v>19.683</v>
-      </c>
-      <c r="G283" t="n">
-        <v>7753.274878081234</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>2756</v>
-      </c>
-      <c r="J283" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>2754</v>
-      </c>
-      <c r="C284" t="n">
-        <v>2754</v>
-      </c>
-      <c r="D284" t="n">
-        <v>2754</v>
-      </c>
-      <c r="E284" t="n">
-        <v>2754</v>
-      </c>
-      <c r="F284" t="n">
-        <v>41.3122</v>
-      </c>
-      <c r="G284" t="n">
-        <v>7711.962678081234</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>2755</v>
-      </c>
-      <c r="J284" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>2754</v>
-      </c>
-      <c r="C285" t="n">
-        <v>2756</v>
-      </c>
-      <c r="D285" t="n">
-        <v>2756</v>
-      </c>
-      <c r="E285" t="n">
-        <v>2754</v>
-      </c>
-      <c r="F285" t="n">
-        <v>209.7752</v>
-      </c>
-      <c r="G285" t="n">
-        <v>7921.737878081234</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2754</v>
-      </c>
-      <c r="J285" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10187,7 +9867,7 @@
         <v>2756</v>
       </c>
       <c r="J286" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10228,7 +9908,7 @@
         <v>2754</v>
       </c>
       <c r="J287" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10269,7 +9949,7 @@
         <v>2763</v>
       </c>
       <c r="J288" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10310,7 +9990,7 @@
         <v>2766</v>
       </c>
       <c r="J289" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10351,7 +10031,7 @@
         <v>2766</v>
       </c>
       <c r="J290" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10392,7 +10072,7 @@
         <v>2771</v>
       </c>
       <c r="J291" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10427,13 +10107,11 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>2772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10468,13 +10146,11 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>2772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10509,13 +10185,11 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>2772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10550,13 +10224,11 @@
         <v>9326.679131284272</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>2772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10591,13 +10263,11 @@
         <v>9326.679131284272</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>2771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10632,13 +10302,11 @@
         <v>9434.515220428773</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>2771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10673,13 +10341,11 @@
         <v>9434.515220428773</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>2782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10714,13 +10380,11 @@
         <v>9434.515220428773</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>2782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10759,7 +10423,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10798,7 +10462,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10837,7 +10501,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10876,7 +10540,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10915,7 +10579,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10954,7 +10618,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10993,7 +10657,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11032,7 +10696,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11071,7 +10735,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11110,7 +10774,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11149,7 +10813,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11188,7 +10852,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11227,7 +10891,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11266,7 +10930,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11305,7 +10969,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11344,7 +11008,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11383,7 +11047,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11422,7 +11086,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11461,7 +11125,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11500,7 +11164,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11539,7 +11203,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11578,7 +11242,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11617,7 +11281,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11656,7 +11320,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11695,7 +11359,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11734,7 +11398,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11773,7 +11437,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11812,7 +11476,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11851,7 +11515,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11890,7 +11554,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11929,7 +11593,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11968,7 +11632,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12007,7 +11671,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12046,7 +11710,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12085,7 +11749,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12124,7 +11788,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12163,7 +11827,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12202,7 +11866,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12241,7 +11905,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12280,7 +11944,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12319,7 +11983,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12358,7 +12022,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12397,7 +12061,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12436,7 +12100,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12475,7 +12139,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12514,7 +12178,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12553,7 +12217,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12592,7 +12256,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12631,7 +12295,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12670,7 +12334,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12709,7 +12373,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12748,7 +12412,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12787,7 +12451,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12826,7 +12490,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12865,7 +12529,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12904,7 +12568,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12943,7 +12607,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12982,7 +12646,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13021,7 +12685,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13060,7 +12724,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13099,7 +12763,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13138,7 +12802,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13177,7 +12841,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13216,7 +12880,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13255,7 +12919,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13294,7 +12958,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13333,7 +12997,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13372,7 +13036,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13407,19 +13071,19 @@
         <v>15895.84902042877</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L368" t="n">
-        <v>1</v>
+        <v>1.021487663280116</v>
       </c>
       <c r="M368" t="inlineStr"/>
     </row>
@@ -13449,14 +13113,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13488,14 +13146,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13524,17 +13176,11 @@
         <v>16190.35191545873</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13563,17 +13209,11 @@
         <v>16662.57395298067</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13602,17 +13242,11 @@
         <v>16648.20965298067</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13641,17 +13275,11 @@
         <v>16649.20859960988</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13680,17 +13308,11 @@
         <v>16558.37589960988</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13719,17 +13341,11 @@
         <v>16547.37589960988</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13758,17 +13374,11 @@
         <v>16567.16859960989</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13797,17 +13407,11 @@
         <v>15653.15149960988</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13836,17 +13440,11 @@
         <v>15954.15149960988</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13875,17 +13473,11 @@
         <v>15954.15149960988</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13914,17 +13506,11 @@
         <v>16438.63779960989</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13953,17 +13539,11 @@
         <v>16339.63779960989</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13992,17 +13572,11 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14031,17 +13605,11 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14070,17 +13638,11 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14109,17 +13671,11 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14148,17 +13704,11 @@
         <v>19272.44969960989</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14187,17 +13737,11 @@
         <v>19322.44969960989</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14226,17 +13770,11 @@
         <v>19429.43859960989</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14265,17 +13803,11 @@
         <v>19274.66289960989</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14304,17 +13836,11 @@
         <v>19887.82039960989</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14343,17 +13869,11 @@
         <v>19988.29569960989</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14382,17 +13902,11 @@
         <v>19988.29569960989</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14421,17 +13935,11 @@
         <v>20091.17649960989</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14460,17 +13968,11 @@
         <v>20091.17649960989</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14499,17 +14001,11 @@
         <v>20505.30499960989</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14538,17 +14034,11 @@
         <v>20506.75499960989</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14577,17 +14067,11 @@
         <v>20996.23089960989</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14619,14 +14103,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14658,14 +14136,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14697,14 +14169,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14736,14 +14202,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14775,14 +14235,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14814,14 +14268,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14853,14 +14301,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14892,14 +14334,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14931,14 +14367,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14970,14 +14400,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15009,14 +14433,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15048,14 +14466,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15087,14 +14499,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15126,14 +14532,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15162,19 +14562,13 @@
         <v>20512.17989960989</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2786</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
-        <v>1.039149318018665</v>
+        <v>1</v>
       </c>
       <c r="M413" t="inlineStr"/>
     </row>
@@ -15201,7 +14595,7 @@
         <v>20325.94349960989</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15234,7 +14628,7 @@
         <v>20325.94349960989</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15267,7 +14661,7 @@
         <v>20325.94349960989</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15300,7 +14694,7 @@
         <v>22159.78109960989</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15333,7 +14727,7 @@
         <v>22866.73149960989</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15366,7 +14760,7 @@
         <v>22866.73149960989</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15399,7 +14793,7 @@
         <v>22866.73149960989</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15432,7 +14826,7 @@
         <v>22893.83449960989</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15465,7 +14859,7 @@
         <v>26130.03499960988</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15498,7 +14892,7 @@
         <v>25478.24091724896</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16059,7 +15453,7 @@
         <v>21959.93995703829</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16092,7 +15486,7 @@
         <v>21960.93995703829</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16125,7 +15519,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16158,7 +15552,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16191,7 +15585,7 @@
         <v>22344.26975703829</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16224,7 +15618,7 @@
         <v>22584.86685703829</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16257,7 +15651,7 @@
         <v>22351.58805703829</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16290,7 +15684,7 @@
         <v>22355.70285703829</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16323,7 +15717,7 @@
         <v>22352.18465703829</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16356,7 +15750,7 @@
         <v>22353.18465703829</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16389,7 +15783,7 @@
         <v>22353.18465703829</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16422,7 +15816,7 @@
         <v>22338.27635703829</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16785,7 +16179,7 @@
         <v>21128.38255703829</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16917,7 +16311,7 @@
         <v>21842.09785703829</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16983,7 +16377,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17016,7 +16410,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17049,7 +16443,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17082,7 +16476,7 @@
         <v>22283.23995703829</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17115,7 +16509,7 @@
         <v>21939.44305703829</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17148,7 +16542,7 @@
         <v>22108.69285703829</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17181,7 +16575,7 @@
         <v>21927.32185703829</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17214,7 +16608,7 @@
         <v>21826.51435703829</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17247,7 +16641,7 @@
         <v>21867.51435703829</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17258,6 +16652,6 @@
       <c r="M476" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest LINK.xlsx
+++ b/BackTest/2020-01-25 BackTest LINK.xlsx
@@ -8074,14 +8074,10 @@
         <v>-1607.198640403903</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>2752</v>
-      </c>
-      <c r="J233" t="n">
-        <v>2752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8111,19 +8107,11 @@
         <v>-900.6176404039035</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>2752</v>
-      </c>
-      <c r="J234" t="n">
-        <v>2752</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8152,19 +8140,11 @@
         <v>-900.4176404039034</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>2770</v>
-      </c>
-      <c r="J235" t="n">
-        <v>2752</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9612,11 +9592,17 @@
         <v>8403.943340137715</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2763</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9645,11 +9631,17 @@
         <v>8126.265078081235</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2760</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9678,11 +9670,17 @@
         <v>7772.957878081234</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2758</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9711,11 +9709,17 @@
         <v>7772.957878081234</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>2756</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9749,10 +9753,12 @@
       <c r="I283" t="n">
         <v>2756</v>
       </c>
-      <c r="J283" t="n">
-        <v>2756</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9781,15 +9787,15 @@
         <v>7711.962678081234</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2756</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2755</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L284" t="n">
@@ -9825,12 +9831,10 @@
       <c r="I285" t="n">
         <v>2754</v>
       </c>
-      <c r="J285" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -9866,9 +9870,7 @@
       <c r="I286" t="n">
         <v>2756</v>
       </c>
-      <c r="J286" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9907,9 +9909,7 @@
       <c r="I287" t="n">
         <v>2754</v>
       </c>
-      <c r="J287" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9948,9 +9948,7 @@
       <c r="I288" t="n">
         <v>2763</v>
       </c>
-      <c r="J288" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9989,9 +9987,7 @@
       <c r="I289" t="n">
         <v>2766</v>
       </c>
-      <c r="J289" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10030,9 +10026,7 @@
       <c r="I290" t="n">
         <v>2766</v>
       </c>
-      <c r="J290" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10071,9 +10065,7 @@
       <c r="I291" t="n">
         <v>2771</v>
       </c>
-      <c r="J291" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10107,12 +10099,12 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2756</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>2772</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10149,9 +10141,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10188,9 +10178,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10227,9 +10215,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10266,9 +10252,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10305,9 +10289,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10344,9 +10326,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10383,9 +10363,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10422,9 +10400,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10461,9 +10437,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10500,9 +10474,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10539,9 +10511,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10578,9 +10548,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10617,9 +10585,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10656,9 +10622,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10695,9 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10734,9 +10696,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10773,9 +10733,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10812,9 +10770,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10851,9 +10807,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10890,9 +10844,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10929,9 +10881,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10968,9 +10918,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11007,9 +10955,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11046,9 +10992,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11085,9 +11029,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11124,9 +11066,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11163,9 +11103,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11202,9 +11140,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11241,9 +11177,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11280,9 +11214,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11319,9 +11251,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11358,9 +11288,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11397,9 +11325,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11436,9 +11362,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11475,9 +11399,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11514,9 +11436,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11553,9 +11473,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11592,9 +11510,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11631,9 +11547,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11670,9 +11584,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11709,9 +11621,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11748,9 +11658,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11787,9 +11695,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11826,9 +11732,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11865,9 +11769,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11904,9 +11806,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11943,9 +11843,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11982,9 +11880,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12021,9 +11917,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12060,9 +11954,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12099,9 +11991,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12138,9 +12028,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12177,9 +12065,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12216,9 +12102,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12255,9 +12139,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12294,9 +12176,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12333,9 +12213,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12372,9 +12250,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12411,9 +12287,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12450,9 +12324,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12489,9 +12361,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12528,9 +12398,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12567,9 +12435,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12606,9 +12472,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12645,9 +12509,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12684,9 +12546,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12723,9 +12583,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12762,9 +12620,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12801,9 +12657,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12840,9 +12694,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12879,9 +12731,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12918,9 +12768,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12957,9 +12805,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12996,9 +12842,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13035,9 +12879,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2756</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13071,1736 +12913,1940 @@
         <v>15895.84902042877</v>
       </c>
       <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D369" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E369" t="n">
+        <v>2835</v>
+      </c>
+      <c r="F369" t="n">
+        <v>100</v>
+      </c>
+      <c r="G369" t="n">
+        <v>15995.84902042877</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2833</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D370" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F370" t="n">
+        <v>44.31829502996123</v>
+      </c>
+      <c r="G370" t="n">
+        <v>16040.16731545873</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2844</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2844</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2840</v>
+      </c>
+      <c r="F371" t="n">
+        <v>150.1846</v>
+      </c>
+      <c r="G371" t="n">
+        <v>16190.35191545873</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2842</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2849</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2849</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F372" t="n">
+        <v>472.2220375219375</v>
+      </c>
+      <c r="G372" t="n">
+        <v>16662.57395298067</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2849</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2842</v>
+      </c>
+      <c r="D373" t="n">
+        <v>2849</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F373" t="n">
+        <v>14.3643</v>
+      </c>
+      <c r="G373" t="n">
+        <v>16648.20965298067</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2848</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2848</v>
+      </c>
+      <c r="D374" t="n">
+        <v>2848</v>
+      </c>
+      <c r="E374" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.9989466292134831</v>
+      </c>
+      <c r="G374" t="n">
+        <v>16649.20859960988</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2841</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2833</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2841</v>
+      </c>
+      <c r="E375" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F375" t="n">
+        <v>90.8327</v>
+      </c>
+      <c r="G375" t="n">
+        <v>16558.37589960988</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2832</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2832</v>
+      </c>
+      <c r="D376" t="n">
+        <v>2832</v>
+      </c>
+      <c r="E376" t="n">
+        <v>2832</v>
+      </c>
+      <c r="F376" t="n">
+        <v>11</v>
+      </c>
+      <c r="G376" t="n">
+        <v>16547.37589960988</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D377" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E377" t="n">
+        <v>2835</v>
+      </c>
+      <c r="F377" t="n">
+        <v>19.7927</v>
+      </c>
+      <c r="G377" t="n">
+        <v>16567.16859960989</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2833</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2833</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F378" t="n">
+        <v>914.0171</v>
+      </c>
+      <c r="G378" t="n">
+        <v>15653.15149960988</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2827</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D379" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2827</v>
+      </c>
+      <c r="F379" t="n">
+        <v>301</v>
+      </c>
+      <c r="G379" t="n">
+        <v>15954.15149960988</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2835</v>
+      </c>
+      <c r="F380" t="n">
+        <v>39.7676</v>
+      </c>
+      <c r="G380" t="n">
+        <v>15954.15149960988</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2850</v>
+      </c>
+      <c r="E381" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F381" t="n">
+        <v>484.4863</v>
+      </c>
+      <c r="G381" t="n">
+        <v>16438.63779960989</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2839</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2839</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2839</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2839</v>
+      </c>
+      <c r="F382" t="n">
+        <v>99</v>
+      </c>
+      <c r="G382" t="n">
+        <v>16339.63779960989</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2839</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2848</v>
+      </c>
+      <c r="D383" t="n">
+        <v>2848</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2839</v>
+      </c>
+      <c r="F383" t="n">
+        <v>843.5825</v>
+      </c>
+      <c r="G383" t="n">
+        <v>17183.22029960989</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2848</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2848</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2848</v>
+      </c>
+      <c r="E384" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F384" t="n">
+        <v>5</v>
+      </c>
+      <c r="G384" t="n">
+        <v>17183.22029960989</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2848</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2848</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2848</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F385" t="n">
+        <v>1478.411</v>
+      </c>
+      <c r="G385" t="n">
+        <v>17183.22029960989</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2848</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2848</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2848</v>
+      </c>
+      <c r="E386" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F386" t="n">
+        <v>804.5362</v>
+      </c>
+      <c r="G386" t="n">
+        <v>17183.22029960989</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2851</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2855</v>
+      </c>
+      <c r="E387" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F387" t="n">
+        <v>2089.2294</v>
+      </c>
+      <c r="G387" t="n">
+        <v>19272.44969960989</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2856</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2870</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2870</v>
+      </c>
+      <c r="E388" t="n">
+        <v>2856</v>
+      </c>
+      <c r="F388" t="n">
+        <v>50</v>
+      </c>
+      <c r="G388" t="n">
+        <v>19322.44969960989</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2878</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2878</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2878</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2878</v>
+      </c>
+      <c r="F389" t="n">
+        <v>106.9889</v>
+      </c>
+      <c r="G389" t="n">
+        <v>19429.43859960989</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2878</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2869</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2878</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2869</v>
+      </c>
+      <c r="F390" t="n">
+        <v>154.7757</v>
+      </c>
+      <c r="G390" t="n">
+        <v>19274.66289960989</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2880</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2870</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2881</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2870</v>
+      </c>
+      <c r="F391" t="n">
+        <v>613.1575</v>
+      </c>
+      <c r="G391" t="n">
+        <v>19887.82039960989</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2873</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2890</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2890</v>
+      </c>
+      <c r="E392" t="n">
+        <v>2873</v>
+      </c>
+      <c r="F392" t="n">
+        <v>100.4753</v>
+      </c>
+      <c r="G392" t="n">
+        <v>19988.29569960989</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2900</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2890</v>
+      </c>
+      <c r="D393" t="n">
+        <v>2903</v>
+      </c>
+      <c r="E393" t="n">
+        <v>2890</v>
+      </c>
+      <c r="F393" t="n">
+        <v>50.4435</v>
+      </c>
+      <c r="G393" t="n">
+        <v>19988.29569960989</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2907</v>
+      </c>
+      <c r="D394" t="n">
+        <v>2907</v>
+      </c>
+      <c r="E394" t="n">
+        <v>2907</v>
+      </c>
+      <c r="F394" t="n">
+        <v>102.8808</v>
+      </c>
+      <c r="G394" t="n">
+        <v>20091.17649960989</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2905</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2907</v>
+      </c>
+      <c r="D395" t="n">
+        <v>2907</v>
+      </c>
+      <c r="E395" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F395" t="n">
+        <v>5.6249</v>
+      </c>
+      <c r="G395" t="n">
+        <v>20091.17649960989</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2908</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2908</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2907</v>
+      </c>
+      <c r="F396" t="n">
+        <v>414.1285</v>
+      </c>
+      <c r="G396" t="n">
+        <v>20505.30499960989</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2916</v>
+      </c>
+      <c r="D397" t="n">
+        <v>2916</v>
+      </c>
+      <c r="E397" t="n">
+        <v>2910</v>
+      </c>
+      <c r="F397" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G397" t="n">
+        <v>20506.75499960989</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2920</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D398" t="n">
+        <v>2922</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2920</v>
+      </c>
+      <c r="F398" t="n">
+        <v>489.4759</v>
+      </c>
+      <c r="G398" t="n">
+        <v>20996.23089960989</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2927</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2927</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2927</v>
+      </c>
+      <c r="E399" t="n">
+        <v>2922</v>
+      </c>
+      <c r="F399" t="n">
+        <v>771.9636</v>
+      </c>
+      <c r="G399" t="n">
+        <v>21768.19449960989</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2923</v>
+      </c>
+      <c r="D400" t="n">
+        <v>2929</v>
+      </c>
+      <c r="E400" t="n">
+        <v>2922</v>
+      </c>
+      <c r="F400" t="n">
+        <v>843.2348</v>
+      </c>
+      <c r="G400" t="n">
+        <v>20924.95969960989</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2923</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2923</v>
+      </c>
+      <c r="E401" t="n">
+        <v>2922</v>
+      </c>
+      <c r="F401" t="n">
+        <v>338.8096</v>
+      </c>
+      <c r="G401" t="n">
+        <v>20586.15009960989</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2922</v>
+      </c>
+      <c r="E402" t="n">
+        <v>2922</v>
+      </c>
+      <c r="F402" t="n">
+        <v>514.4683</v>
+      </c>
+      <c r="G402" t="n">
+        <v>20586.15009960989</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2922</v>
+      </c>
+      <c r="E403" t="n">
+        <v>2922</v>
+      </c>
+      <c r="F403" t="n">
+        <v>197.2887</v>
+      </c>
+      <c r="G403" t="n">
+        <v>20586.15009960989</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2928</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2928</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2922</v>
+      </c>
+      <c r="F404" t="n">
+        <v>804.8531</v>
+      </c>
+      <c r="G404" t="n">
+        <v>21391.00319960989</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2923</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2923</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2923</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2923</v>
+      </c>
+      <c r="F405" t="n">
+        <v>209.1862</v>
+      </c>
+      <c r="G405" t="n">
+        <v>21181.81699960989</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2924</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2923</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2924</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2923</v>
+      </c>
+      <c r="F406" t="n">
+        <v>282.1198</v>
+      </c>
+      <c r="G406" t="n">
+        <v>21181.81699960989</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2923</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2923</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2923</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2923</v>
+      </c>
+      <c r="F407" t="n">
+        <v>150</v>
+      </c>
+      <c r="G407" t="n">
+        <v>21181.81699960989</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2924</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2923</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2924</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2923</v>
+      </c>
+      <c r="F408" t="n">
+        <v>150.2595</v>
+      </c>
+      <c r="G408" t="n">
+        <v>21181.81699960989</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2924</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2923</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2924</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2923</v>
+      </c>
+      <c r="F409" t="n">
+        <v>113.5663</v>
+      </c>
+      <c r="G409" t="n">
+        <v>21181.81699960989</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>2929</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2921</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2929</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2921</v>
+      </c>
+      <c r="F410" t="n">
+        <v>399.5985</v>
+      </c>
+      <c r="G410" t="n">
+        <v>20782.21849960989</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2918</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2917</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2918</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2917</v>
+      </c>
+      <c r="F411" t="n">
+        <v>526.8422</v>
+      </c>
+      <c r="G411" t="n">
+        <v>20255.37629960989</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2917</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2908</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2917</v>
+      </c>
+      <c r="E412" t="n">
+        <v>2908</v>
+      </c>
+      <c r="F412" t="n">
+        <v>1572.2301</v>
+      </c>
+      <c r="G412" t="n">
+        <v>18683.14619960989</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2908</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2909</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2911</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2894</v>
+      </c>
+      <c r="F413" t="n">
+        <v>1829.0337</v>
+      </c>
+      <c r="G413" t="n">
+        <v>20512.17989960989</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2895</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2895</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2895</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2895</v>
+      </c>
+      <c r="F414" t="n">
+        <v>186.2364</v>
+      </c>
+      <c r="G414" t="n">
+        <v>20325.94349960989</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2895</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2895</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2895</v>
+      </c>
+      <c r="E415" t="n">
+        <v>2895</v>
+      </c>
+      <c r="F415" t="n">
+        <v>400</v>
+      </c>
+      <c r="G415" t="n">
+        <v>20325.94349960989</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2895</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2895</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2895</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2894</v>
+      </c>
+      <c r="F416" t="n">
+        <v>1084.7231</v>
+      </c>
+      <c r="G416" t="n">
+        <v>20325.94349960989</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2895</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2903</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2903</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2895</v>
+      </c>
+      <c r="F417" t="n">
+        <v>1833.8376</v>
+      </c>
+      <c r="G417" t="n">
+        <v>22159.78109960989</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2909</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2912</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2913</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2909</v>
+      </c>
+      <c r="F418" t="n">
+        <v>706.9503999999999</v>
+      </c>
+      <c r="G418" t="n">
+        <v>22866.73149960989</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2912</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2912</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2912</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2912</v>
+      </c>
+      <c r="F419" t="n">
+        <v>333.8069</v>
+      </c>
+      <c r="G419" t="n">
+        <v>22866.73149960989</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2917</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2912</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2923</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2912</v>
+      </c>
+      <c r="F420" t="n">
+        <v>1414.9521</v>
+      </c>
+      <c r="G420" t="n">
+        <v>22866.73149960989</v>
+      </c>
+      <c r="H420" t="n">
         <v>2</v>
       </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2756</v>
-      </c>
-      <c r="K368" t="inlineStr">
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L368" t="n">
-        <v>1.021487663280116</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>2835</v>
-      </c>
-      <c r="C369" t="n">
-        <v>2835</v>
-      </c>
-      <c r="D369" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E369" t="n">
-        <v>2835</v>
-      </c>
-      <c r="F369" t="n">
-        <v>100</v>
-      </c>
-      <c r="G369" t="n">
-        <v>15995.84902042877</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>2833</v>
-      </c>
-      <c r="C370" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D370" t="n">
-        <v>2837</v>
-      </c>
-      <c r="E370" t="n">
-        <v>2833</v>
-      </c>
-      <c r="F370" t="n">
-        <v>44.31829502996123</v>
-      </c>
-      <c r="G370" t="n">
-        <v>16040.16731545873</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>2840</v>
-      </c>
-      <c r="C371" t="n">
-        <v>2844</v>
-      </c>
-      <c r="D371" t="n">
-        <v>2844</v>
-      </c>
-      <c r="E371" t="n">
-        <v>2840</v>
-      </c>
-      <c r="F371" t="n">
-        <v>150.1846</v>
-      </c>
-      <c r="G371" t="n">
-        <v>16190.35191545873</v>
-      </c>
-      <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>2842</v>
-      </c>
-      <c r="C372" t="n">
-        <v>2849</v>
-      </c>
-      <c r="D372" t="n">
-        <v>2849</v>
-      </c>
-      <c r="E372" t="n">
-        <v>2842</v>
-      </c>
-      <c r="F372" t="n">
-        <v>472.2220375219375</v>
-      </c>
-      <c r="G372" t="n">
-        <v>16662.57395298067</v>
-      </c>
-      <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>2849</v>
-      </c>
-      <c r="C373" t="n">
-        <v>2842</v>
-      </c>
-      <c r="D373" t="n">
-        <v>2849</v>
-      </c>
-      <c r="E373" t="n">
-        <v>2842</v>
-      </c>
-      <c r="F373" t="n">
-        <v>14.3643</v>
-      </c>
-      <c r="G373" t="n">
-        <v>16648.20965298067</v>
-      </c>
-      <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>2848</v>
-      </c>
-      <c r="C374" t="n">
-        <v>2848</v>
-      </c>
-      <c r="D374" t="n">
-        <v>2848</v>
-      </c>
-      <c r="E374" t="n">
-        <v>2848</v>
-      </c>
-      <c r="F374" t="n">
-        <v>0.9989466292134831</v>
-      </c>
-      <c r="G374" t="n">
-        <v>16649.20859960988</v>
-      </c>
-      <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>2841</v>
-      </c>
-      <c r="C375" t="n">
-        <v>2833</v>
-      </c>
-      <c r="D375" t="n">
-        <v>2841</v>
-      </c>
-      <c r="E375" t="n">
-        <v>2833</v>
-      </c>
-      <c r="F375" t="n">
-        <v>90.8327</v>
-      </c>
-      <c r="G375" t="n">
-        <v>16558.37589960988</v>
-      </c>
-      <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>2832</v>
-      </c>
-      <c r="C376" t="n">
-        <v>2832</v>
-      </c>
-      <c r="D376" t="n">
-        <v>2832</v>
-      </c>
-      <c r="E376" t="n">
-        <v>2832</v>
-      </c>
-      <c r="F376" t="n">
-        <v>11</v>
-      </c>
-      <c r="G376" t="n">
-        <v>16547.37589960988</v>
-      </c>
-      <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>2835</v>
-      </c>
-      <c r="C377" t="n">
-        <v>2835</v>
-      </c>
-      <c r="D377" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E377" t="n">
-        <v>2835</v>
-      </c>
-      <c r="F377" t="n">
-        <v>19.7927</v>
-      </c>
-      <c r="G377" t="n">
-        <v>16567.16859960989</v>
-      </c>
-      <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>2833</v>
-      </c>
-      <c r="C378" t="n">
-        <v>2833</v>
-      </c>
-      <c r="D378" t="n">
-        <v>2833</v>
-      </c>
-      <c r="E378" t="n">
-        <v>2833</v>
-      </c>
-      <c r="F378" t="n">
-        <v>914.0171</v>
-      </c>
-      <c r="G378" t="n">
-        <v>15653.15149960988</v>
-      </c>
-      <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>2827</v>
-      </c>
-      <c r="C379" t="n">
-        <v>2835</v>
-      </c>
-      <c r="D379" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E379" t="n">
-        <v>2827</v>
-      </c>
-      <c r="F379" t="n">
-        <v>301</v>
-      </c>
-      <c r="G379" t="n">
-        <v>15954.15149960988</v>
-      </c>
-      <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>2835</v>
-      </c>
-      <c r="C380" t="n">
-        <v>2835</v>
-      </c>
-      <c r="D380" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E380" t="n">
-        <v>2835</v>
-      </c>
-      <c r="F380" t="n">
-        <v>39.7676</v>
-      </c>
-      <c r="G380" t="n">
-        <v>15954.15149960988</v>
-      </c>
-      <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C381" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D381" t="n">
-        <v>2850</v>
-      </c>
-      <c r="E381" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F381" t="n">
-        <v>484.4863</v>
-      </c>
-      <c r="G381" t="n">
-        <v>16438.63779960989</v>
-      </c>
-      <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>2839</v>
-      </c>
-      <c r="C382" t="n">
-        <v>2839</v>
-      </c>
-      <c r="D382" t="n">
-        <v>2839</v>
-      </c>
-      <c r="E382" t="n">
-        <v>2839</v>
-      </c>
-      <c r="F382" t="n">
-        <v>99</v>
-      </c>
-      <c r="G382" t="n">
-        <v>16339.63779960989</v>
-      </c>
-      <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>2839</v>
-      </c>
-      <c r="C383" t="n">
-        <v>2848</v>
-      </c>
-      <c r="D383" t="n">
-        <v>2848</v>
-      </c>
-      <c r="E383" t="n">
-        <v>2839</v>
-      </c>
-      <c r="F383" t="n">
-        <v>843.5825</v>
-      </c>
-      <c r="G383" t="n">
-        <v>17183.22029960989</v>
-      </c>
-      <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>2848</v>
-      </c>
-      <c r="C384" t="n">
-        <v>2848</v>
-      </c>
-      <c r="D384" t="n">
-        <v>2848</v>
-      </c>
-      <c r="E384" t="n">
-        <v>2848</v>
-      </c>
-      <c r="F384" t="n">
-        <v>5</v>
-      </c>
-      <c r="G384" t="n">
-        <v>17183.22029960989</v>
-      </c>
-      <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>2848</v>
-      </c>
-      <c r="C385" t="n">
-        <v>2848</v>
-      </c>
-      <c r="D385" t="n">
-        <v>2848</v>
-      </c>
-      <c r="E385" t="n">
-        <v>2848</v>
-      </c>
-      <c r="F385" t="n">
-        <v>1478.411</v>
-      </c>
-      <c r="G385" t="n">
-        <v>17183.22029960989</v>
-      </c>
-      <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>2848</v>
-      </c>
-      <c r="C386" t="n">
-        <v>2848</v>
-      </c>
-      <c r="D386" t="n">
-        <v>2848</v>
-      </c>
-      <c r="E386" t="n">
-        <v>2848</v>
-      </c>
-      <c r="F386" t="n">
-        <v>804.5362</v>
-      </c>
-      <c r="G386" t="n">
-        <v>17183.22029960989</v>
-      </c>
-      <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C387" t="n">
-        <v>2851</v>
-      </c>
-      <c r="D387" t="n">
-        <v>2855</v>
-      </c>
-      <c r="E387" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F387" t="n">
-        <v>2089.2294</v>
-      </c>
-      <c r="G387" t="n">
-        <v>19272.44969960989</v>
-      </c>
-      <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>2856</v>
-      </c>
-      <c r="C388" t="n">
-        <v>2870</v>
-      </c>
-      <c r="D388" t="n">
-        <v>2870</v>
-      </c>
-      <c r="E388" t="n">
-        <v>2856</v>
-      </c>
-      <c r="F388" t="n">
-        <v>50</v>
-      </c>
-      <c r="G388" t="n">
-        <v>19322.44969960989</v>
-      </c>
-      <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>2878</v>
-      </c>
-      <c r="C389" t="n">
-        <v>2878</v>
-      </c>
-      <c r="D389" t="n">
-        <v>2878</v>
-      </c>
-      <c r="E389" t="n">
-        <v>2878</v>
-      </c>
-      <c r="F389" t="n">
-        <v>106.9889</v>
-      </c>
-      <c r="G389" t="n">
-        <v>19429.43859960989</v>
-      </c>
-      <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>2878</v>
-      </c>
-      <c r="C390" t="n">
-        <v>2869</v>
-      </c>
-      <c r="D390" t="n">
-        <v>2878</v>
-      </c>
-      <c r="E390" t="n">
-        <v>2869</v>
-      </c>
-      <c r="F390" t="n">
-        <v>154.7757</v>
-      </c>
-      <c r="G390" t="n">
-        <v>19274.66289960989</v>
-      </c>
-      <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>2880</v>
-      </c>
-      <c r="C391" t="n">
-        <v>2870</v>
-      </c>
-      <c r="D391" t="n">
-        <v>2881</v>
-      </c>
-      <c r="E391" t="n">
-        <v>2870</v>
-      </c>
-      <c r="F391" t="n">
-        <v>613.1575</v>
-      </c>
-      <c r="G391" t="n">
-        <v>19887.82039960989</v>
-      </c>
-      <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>2873</v>
-      </c>
-      <c r="C392" t="n">
-        <v>2890</v>
-      </c>
-      <c r="D392" t="n">
-        <v>2890</v>
-      </c>
-      <c r="E392" t="n">
-        <v>2873</v>
-      </c>
-      <c r="F392" t="n">
-        <v>100.4753</v>
-      </c>
-      <c r="G392" t="n">
-        <v>19988.29569960989</v>
-      </c>
-      <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>2900</v>
-      </c>
-      <c r="C393" t="n">
-        <v>2890</v>
-      </c>
-      <c r="D393" t="n">
-        <v>2903</v>
-      </c>
-      <c r="E393" t="n">
-        <v>2890</v>
-      </c>
-      <c r="F393" t="n">
-        <v>50.4435</v>
-      </c>
-      <c r="G393" t="n">
-        <v>19988.29569960989</v>
-      </c>
-      <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>2907</v>
-      </c>
-      <c r="C394" t="n">
-        <v>2907</v>
-      </c>
-      <c r="D394" t="n">
-        <v>2907</v>
-      </c>
-      <c r="E394" t="n">
-        <v>2907</v>
-      </c>
-      <c r="F394" t="n">
-        <v>102.8808</v>
-      </c>
-      <c r="G394" t="n">
-        <v>20091.17649960989</v>
-      </c>
-      <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>2905</v>
-      </c>
-      <c r="C395" t="n">
-        <v>2907</v>
-      </c>
-      <c r="D395" t="n">
-        <v>2907</v>
-      </c>
-      <c r="E395" t="n">
-        <v>2905</v>
-      </c>
-      <c r="F395" t="n">
-        <v>5.6249</v>
-      </c>
-      <c r="G395" t="n">
-        <v>20091.17649960989</v>
-      </c>
-      <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>2907</v>
-      </c>
-      <c r="C396" t="n">
-        <v>2908</v>
-      </c>
-      <c r="D396" t="n">
-        <v>2908</v>
-      </c>
-      <c r="E396" t="n">
-        <v>2907</v>
-      </c>
-      <c r="F396" t="n">
-        <v>414.1285</v>
-      </c>
-      <c r="G396" t="n">
-        <v>20505.30499960989</v>
-      </c>
-      <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>2910</v>
-      </c>
-      <c r="C397" t="n">
-        <v>2916</v>
-      </c>
-      <c r="D397" t="n">
-        <v>2916</v>
-      </c>
-      <c r="E397" t="n">
-        <v>2910</v>
-      </c>
-      <c r="F397" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G397" t="n">
-        <v>20506.75499960989</v>
-      </c>
-      <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>2920</v>
-      </c>
-      <c r="C398" t="n">
-        <v>2922</v>
-      </c>
-      <c r="D398" t="n">
-        <v>2922</v>
-      </c>
-      <c r="E398" t="n">
-        <v>2920</v>
-      </c>
-      <c r="F398" t="n">
-        <v>489.4759</v>
-      </c>
-      <c r="G398" t="n">
-        <v>20996.23089960989</v>
-      </c>
-      <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>2927</v>
-      </c>
-      <c r="C399" t="n">
-        <v>2927</v>
-      </c>
-      <c r="D399" t="n">
-        <v>2927</v>
-      </c>
-      <c r="E399" t="n">
-        <v>2922</v>
-      </c>
-      <c r="F399" t="n">
-        <v>771.9636</v>
-      </c>
-      <c r="G399" t="n">
-        <v>21768.19449960989</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C400" t="n">
-        <v>2923</v>
-      </c>
-      <c r="D400" t="n">
-        <v>2929</v>
-      </c>
-      <c r="E400" t="n">
-        <v>2922</v>
-      </c>
-      <c r="F400" t="n">
-        <v>843.2348</v>
-      </c>
-      <c r="G400" t="n">
-        <v>20924.95969960989</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>2923</v>
-      </c>
-      <c r="C401" t="n">
-        <v>2922</v>
-      </c>
-      <c r="D401" t="n">
-        <v>2923</v>
-      </c>
-      <c r="E401" t="n">
-        <v>2922</v>
-      </c>
-      <c r="F401" t="n">
-        <v>338.8096</v>
-      </c>
-      <c r="G401" t="n">
-        <v>20586.15009960989</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C402" t="n">
-        <v>2922</v>
-      </c>
-      <c r="D402" t="n">
-        <v>2922</v>
-      </c>
-      <c r="E402" t="n">
-        <v>2922</v>
-      </c>
-      <c r="F402" t="n">
-        <v>514.4683</v>
-      </c>
-      <c r="G402" t="n">
-        <v>20586.15009960989</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C403" t="n">
-        <v>2922</v>
-      </c>
-      <c r="D403" t="n">
-        <v>2922</v>
-      </c>
-      <c r="E403" t="n">
-        <v>2922</v>
-      </c>
-      <c r="F403" t="n">
-        <v>197.2887</v>
-      </c>
-      <c r="G403" t="n">
-        <v>20586.15009960989</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C404" t="n">
-        <v>2928</v>
-      </c>
-      <c r="D404" t="n">
-        <v>2928</v>
-      </c>
-      <c r="E404" t="n">
-        <v>2922</v>
-      </c>
-      <c r="F404" t="n">
-        <v>804.8531</v>
-      </c>
-      <c r="G404" t="n">
-        <v>21391.00319960989</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>2923</v>
-      </c>
-      <c r="C405" t="n">
-        <v>2923</v>
-      </c>
-      <c r="D405" t="n">
-        <v>2923</v>
-      </c>
-      <c r="E405" t="n">
-        <v>2923</v>
-      </c>
-      <c r="F405" t="n">
-        <v>209.1862</v>
-      </c>
-      <c r="G405" t="n">
-        <v>21181.81699960989</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>2924</v>
-      </c>
-      <c r="C406" t="n">
-        <v>2923</v>
-      </c>
-      <c r="D406" t="n">
-        <v>2924</v>
-      </c>
-      <c r="E406" t="n">
-        <v>2923</v>
-      </c>
-      <c r="F406" t="n">
-        <v>282.1198</v>
-      </c>
-      <c r="G406" t="n">
-        <v>21181.81699960989</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>2923</v>
-      </c>
-      <c r="C407" t="n">
-        <v>2923</v>
-      </c>
-      <c r="D407" t="n">
-        <v>2923</v>
-      </c>
-      <c r="E407" t="n">
-        <v>2923</v>
-      </c>
-      <c r="F407" t="n">
-        <v>150</v>
-      </c>
-      <c r="G407" t="n">
-        <v>21181.81699960989</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>2924</v>
-      </c>
-      <c r="C408" t="n">
-        <v>2923</v>
-      </c>
-      <c r="D408" t="n">
-        <v>2924</v>
-      </c>
-      <c r="E408" t="n">
-        <v>2923</v>
-      </c>
-      <c r="F408" t="n">
-        <v>150.2595</v>
-      </c>
-      <c r="G408" t="n">
-        <v>21181.81699960989</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>2924</v>
-      </c>
-      <c r="C409" t="n">
-        <v>2923</v>
-      </c>
-      <c r="D409" t="n">
-        <v>2924</v>
-      </c>
-      <c r="E409" t="n">
-        <v>2923</v>
-      </c>
-      <c r="F409" t="n">
-        <v>113.5663</v>
-      </c>
-      <c r="G409" t="n">
-        <v>21181.81699960989</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>2929</v>
-      </c>
-      <c r="C410" t="n">
-        <v>2921</v>
-      </c>
-      <c r="D410" t="n">
-        <v>2929</v>
-      </c>
-      <c r="E410" t="n">
-        <v>2921</v>
-      </c>
-      <c r="F410" t="n">
-        <v>399.5985</v>
-      </c>
-      <c r="G410" t="n">
-        <v>20782.21849960989</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>2918</v>
-      </c>
-      <c r="C411" t="n">
-        <v>2917</v>
-      </c>
-      <c r="D411" t="n">
-        <v>2918</v>
-      </c>
-      <c r="E411" t="n">
-        <v>2917</v>
-      </c>
-      <c r="F411" t="n">
-        <v>526.8422</v>
-      </c>
-      <c r="G411" t="n">
-        <v>20255.37629960989</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>2917</v>
-      </c>
-      <c r="C412" t="n">
-        <v>2908</v>
-      </c>
-      <c r="D412" t="n">
-        <v>2917</v>
-      </c>
-      <c r="E412" t="n">
-        <v>2908</v>
-      </c>
-      <c r="F412" t="n">
-        <v>1572.2301</v>
-      </c>
-      <c r="G412" t="n">
-        <v>18683.14619960989</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>2908</v>
-      </c>
-      <c r="C413" t="n">
-        <v>2909</v>
-      </c>
-      <c r="D413" t="n">
-        <v>2911</v>
-      </c>
-      <c r="E413" t="n">
-        <v>2894</v>
-      </c>
-      <c r="F413" t="n">
-        <v>1829.0337</v>
-      </c>
-      <c r="G413" t="n">
-        <v>20512.17989960989</v>
-      </c>
-      <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>2895</v>
-      </c>
-      <c r="C414" t="n">
-        <v>2895</v>
-      </c>
-      <c r="D414" t="n">
-        <v>2895</v>
-      </c>
-      <c r="E414" t="n">
-        <v>2895</v>
-      </c>
-      <c r="F414" t="n">
-        <v>186.2364</v>
-      </c>
-      <c r="G414" t="n">
-        <v>20325.94349960989</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>2895</v>
-      </c>
-      <c r="C415" t="n">
-        <v>2895</v>
-      </c>
-      <c r="D415" t="n">
-        <v>2895</v>
-      </c>
-      <c r="E415" t="n">
-        <v>2895</v>
-      </c>
-      <c r="F415" t="n">
-        <v>400</v>
-      </c>
-      <c r="G415" t="n">
-        <v>20325.94349960989</v>
-      </c>
-      <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>2895</v>
-      </c>
-      <c r="C416" t="n">
-        <v>2895</v>
-      </c>
-      <c r="D416" t="n">
-        <v>2895</v>
-      </c>
-      <c r="E416" t="n">
-        <v>2894</v>
-      </c>
-      <c r="F416" t="n">
-        <v>1084.7231</v>
-      </c>
-      <c r="G416" t="n">
-        <v>20325.94349960989</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>2895</v>
-      </c>
-      <c r="C417" t="n">
-        <v>2903</v>
-      </c>
-      <c r="D417" t="n">
-        <v>2903</v>
-      </c>
-      <c r="E417" t="n">
-        <v>2895</v>
-      </c>
-      <c r="F417" t="n">
-        <v>1833.8376</v>
-      </c>
-      <c r="G417" t="n">
-        <v>22159.78109960989</v>
-      </c>
-      <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>2909</v>
-      </c>
-      <c r="C418" t="n">
-        <v>2912</v>
-      </c>
-      <c r="D418" t="n">
-        <v>2913</v>
-      </c>
-      <c r="E418" t="n">
-        <v>2909</v>
-      </c>
-      <c r="F418" t="n">
-        <v>706.9503999999999</v>
-      </c>
-      <c r="G418" t="n">
-        <v>22866.73149960989</v>
-      </c>
-      <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>2912</v>
-      </c>
-      <c r="C419" t="n">
-        <v>2912</v>
-      </c>
-      <c r="D419" t="n">
-        <v>2912</v>
-      </c>
-      <c r="E419" t="n">
-        <v>2912</v>
-      </c>
-      <c r="F419" t="n">
-        <v>333.8069</v>
-      </c>
-      <c r="G419" t="n">
-        <v>22866.73149960989</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>2917</v>
-      </c>
-      <c r="C420" t="n">
-        <v>2912</v>
-      </c>
-      <c r="D420" t="n">
-        <v>2923</v>
-      </c>
-      <c r="E420" t="n">
-        <v>2912</v>
-      </c>
-      <c r="F420" t="n">
-        <v>1414.9521</v>
-      </c>
-      <c r="G420" t="n">
-        <v>22866.73149960989</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr"/>
     </row>
     <row r="421">
@@ -14826,7 +14872,7 @@
         <v>22893.83449960989</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14859,7 +14905,7 @@
         <v>26130.03499960988</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14892,7 +14938,7 @@
         <v>25478.24091724896</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14925,7 +14971,7 @@
         <v>26901.57175703829</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14958,7 +15004,7 @@
         <v>25883.87175703829</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14991,7 +15037,7 @@
         <v>23890.42695703829</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15024,7 +15070,7 @@
         <v>23890.42695703829</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15057,7 +15103,7 @@
         <v>23856.25075703829</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15090,7 +15136,7 @@
         <v>23543.87465703829</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15123,7 +15169,7 @@
         <v>24164.61195703829</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15156,7 +15202,7 @@
         <v>20004.83695703829</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15189,7 +15235,7 @@
         <v>21843.85175703829</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15255,7 +15301,7 @@
         <v>21938.52915703829</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15288,7 +15334,7 @@
         <v>21954.01905703829</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15519,7 +15565,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15552,7 +15598,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15585,7 +15631,7 @@
         <v>22344.26975703829</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15618,7 +15664,7 @@
         <v>22584.86685703829</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15651,7 +15697,7 @@
         <v>22351.58805703829</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15684,7 +15730,7 @@
         <v>22355.70285703829</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15717,7 +15763,7 @@
         <v>22352.18465703829</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15750,7 +15796,7 @@
         <v>22353.18465703829</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15915,7 +15961,7 @@
         <v>22190.58005703829</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15948,7 +15994,7 @@
         <v>21882.77275703829</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15981,7 +16027,7 @@
         <v>21882.77275703829</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16146,7 +16192,7 @@
         <v>21128.38255703829</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
